--- a/data/vgp_database/San_Luis_Hills_volcanics.xlsx
+++ b/data/vgp_database/San_Luis_Hills_volcanics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E975E5-E5A8-CF48-A1DF-FFD9500318FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DCD2B4-F9EF-4748-8C0D-598F68663940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -293,9 +293,6 @@
     <t>Andesite</t>
   </si>
   <si>
-    <t>Pyroclastic Sediment</t>
-  </si>
-  <si>
     <t>Dacite</t>
   </si>
   <si>
@@ -312,6 +309,9 @@
   </si>
   <si>
     <t>10.1029/97GL00127:10.1029/91JB00068:10.1130/2013.2494(02)</t>
+  </si>
+  <si>
+    <t>Pyroclastite</t>
   </si>
 </sst>
 </file>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AN22" sqref="AN22"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10:AB31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -766,7 +766,7 @@
     <col min="25" max="25" width="15.5" customWidth="1"/>
     <col min="26" max="26" width="10" customWidth="1"/>
     <col min="27" max="27" width="9.83203125" customWidth="1"/>
-    <col min="28" max="28" width="9.1640625" customWidth="1"/>
+    <col min="28" max="28" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.5" customWidth="1"/>
     <col min="30" max="30" width="8" customWidth="1"/>
     <col min="31" max="31" width="9.6640625" customWidth="1"/>
@@ -1383,10 +1383,10 @@
         <v>65</v>
       </c>
       <c r="Z9" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA9" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB9" s="15" t="s">
         <v>83</v>
@@ -1425,7 +1425,7 @@
         <v>68</v>
       </c>
       <c r="AP9" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ9" s="3"/>
     </row>
@@ -1490,10 +1490,10 @@
         <v>70</v>
       </c>
       <c r="Z10" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA10" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB10" s="15" t="s">
         <v>84</v>
@@ -1531,7 +1531,7 @@
         <v>72</v>
       </c>
       <c r="AP10" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1599,10 +1599,10 @@
         <v>65</v>
       </c>
       <c r="Z11" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA11" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB11" s="15" t="s">
         <v>83</v>
@@ -1641,7 +1641,7 @@
         <v>68</v>
       </c>
       <c r="AP11" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ11" s="3"/>
     </row>
@@ -1710,10 +1710,10 @@
         <v>65</v>
       </c>
       <c r="Z12" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA12" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB12" s="15" t="s">
         <v>83</v>
@@ -1752,7 +1752,7 @@
         <v>68</v>
       </c>
       <c r="AP12" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ12" s="3"/>
     </row>
@@ -1817,13 +1817,13 @@
         <v>73</v>
       </c>
       <c r="Z13" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA13" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB13" s="15" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AC13" s="15" t="s">
         <v>66</v>
@@ -1859,7 +1859,7 @@
         <v>72</v>
       </c>
       <c r="AP13" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ13" s="3"/>
     </row>
@@ -1924,13 +1924,13 @@
         <v>73</v>
       </c>
       <c r="Z14" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA14" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB14" s="15" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AC14" s="15" t="s">
         <v>66</v>
@@ -1966,7 +1966,7 @@
         <v>72</v>
       </c>
       <c r="AP14" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ14" s="3"/>
     </row>
@@ -2031,10 +2031,10 @@
         <v>70</v>
       </c>
       <c r="Z15" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA15" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB15" s="15" t="s">
         <v>84</v>
@@ -2073,7 +2073,7 @@
         <v>72</v>
       </c>
       <c r="AP15" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ15" s="3"/>
     </row>
@@ -2142,13 +2142,13 @@
         <v>76</v>
       </c>
       <c r="Z16" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA16" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB16" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC16" s="15" t="s">
         <v>66</v>
@@ -2184,7 +2184,7 @@
         <v>68</v>
       </c>
       <c r="AP16" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ16" s="3"/>
     </row>
@@ -2249,10 +2249,10 @@
         <v>65</v>
       </c>
       <c r="Z17" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA17" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB17" s="15" t="s">
         <v>83</v>
@@ -2293,7 +2293,7 @@
         <v>68</v>
       </c>
       <c r="AP17" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ17" s="3"/>
     </row>
@@ -2358,10 +2358,10 @@
         <v>65</v>
       </c>
       <c r="Z18" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA18" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB18" s="15" t="s">
         <v>83</v>
@@ -2402,7 +2402,7 @@
         <v>68</v>
       </c>
       <c r="AP18" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ18" s="8"/>
     </row>
@@ -2471,10 +2471,10 @@
         <v>65</v>
       </c>
       <c r="Z19" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA19" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB19" s="15" t="s">
         <v>83</v>
@@ -2513,7 +2513,7 @@
         <v>68</v>
       </c>
       <c r="AP19" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ19" s="8"/>
     </row>
@@ -2578,10 +2578,10 @@
         <v>70</v>
       </c>
       <c r="Z20" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA20" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB20" s="15" t="s">
         <v>84</v>
@@ -2622,7 +2622,7 @@
         <v>68</v>
       </c>
       <c r="AP20" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ20" s="8"/>
     </row>
@@ -2687,10 +2687,10 @@
         <v>70</v>
       </c>
       <c r="Z21" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA21" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB21" s="15" t="s">
         <v>84</v>
@@ -2729,7 +2729,7 @@
         <v>72</v>
       </c>
       <c r="AP21" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ21" s="8"/>
     </row>
@@ -2794,13 +2794,13 @@
         <v>78</v>
       </c>
       <c r="Z22" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA22" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB22" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC22" s="15" t="s">
         <v>66</v>
@@ -2836,7 +2836,7 @@
         <v>72</v>
       </c>
       <c r="AP22" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ22" s="8"/>
     </row>
@@ -2905,10 +2905,10 @@
         <v>65</v>
       </c>
       <c r="Z23" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA23" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB23" s="15" t="s">
         <v>83</v>
@@ -2947,7 +2947,7 @@
         <v>68</v>
       </c>
       <c r="AP23" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ23" s="8"/>
     </row>
@@ -3012,13 +3012,13 @@
         <v>73</v>
       </c>
       <c r="Z24" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA24" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB24" s="15" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AC24" s="15" t="s">
         <v>66</v>
@@ -3054,7 +3054,7 @@
         <v>72</v>
       </c>
       <c r="AP24" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ24" s="8"/>
     </row>
@@ -3119,10 +3119,10 @@
         <v>70</v>
       </c>
       <c r="Z25" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA25" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB25" s="15" t="s">
         <v>84</v>
@@ -3161,7 +3161,7 @@
         <v>72</v>
       </c>
       <c r="AP25" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ25" s="8"/>
     </row>
@@ -3226,13 +3226,13 @@
         <v>73</v>
       </c>
       <c r="Z26" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA26" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB26" s="15" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AC26" s="15" t="s">
         <v>66</v>
@@ -3268,7 +3268,7 @@
         <v>72</v>
       </c>
       <c r="AP26" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ26" s="8"/>
     </row>
@@ -3333,13 +3333,13 @@
         <v>73</v>
       </c>
       <c r="Z27" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA27" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB27" s="15" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AC27" s="15" t="s">
         <v>66</v>
@@ -3375,7 +3375,7 @@
         <v>72</v>
       </c>
       <c r="AP27" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ27" s="8"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>70</v>
       </c>
       <c r="Z28" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA28" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB28" s="15" t="s">
         <v>84</v>
@@ -3482,7 +3482,7 @@
         <v>72</v>
       </c>
       <c r="AP28" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ28" s="8"/>
     </row>
@@ -3543,10 +3543,10 @@
         <v>70</v>
       </c>
       <c r="Z29" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA29" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB29" s="15" t="s">
         <v>84</v>
@@ -3587,7 +3587,7 @@
         <v>72</v>
       </c>
       <c r="AP29" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3651,13 +3651,13 @@
         <v>78</v>
       </c>
       <c r="Z30" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA30" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB30" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC30" s="15" t="s">
         <v>66</v>
@@ -3692,7 +3692,7 @@
         <v>72</v>
       </c>
       <c r="AP30" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3756,10 +3756,10 @@
         <v>70</v>
       </c>
       <c r="Z31" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA31" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB31" s="15" t="s">
         <v>84</v>
@@ -3797,7 +3797,7 @@
         <v>72</v>
       </c>
       <c r="AP31" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/data/vgp_database/San_Luis_Hills_volcanics.xlsx
+++ b/data/vgp_database/San_Luis_Hills_volcanics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DCD2B4-F9EF-4748-8C0D-598F68663940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E0A268-04CA-D547-9212-E10DA45E265E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10:AB31"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AP9" sqref="AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -770,7 +770,10 @@
     <col min="29" max="29" width="7.5" customWidth="1"/>
     <col min="30" max="30" width="8" customWidth="1"/>
     <col min="31" max="31" width="9.6640625" customWidth="1"/>
-    <col min="32" max="43" width="10.5" customWidth="1"/>
+    <col min="32" max="37" width="10.5" customWidth="1"/>
+    <col min="38" max="38" width="25.83203125" customWidth="1"/>
+    <col min="39" max="39" width="21.5" customWidth="1"/>
+    <col min="40" max="43" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
